--- a/Data Absen Karyawan.xlsx
+++ b/Data Absen Karyawan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projecta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tubes prokom\Kelompok-3-Prokom-Kelas-A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7742855-E298-46C4-B760-C086FD75B47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E887B55-03C7-410C-B81E-DBDE3AF60883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7932E6C-6D56-4C35-BFB1-5E5CFA6F6593}"/>
   </bookViews>
@@ -299,16 +299,7 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,7 +316,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,811 +644,811 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="9">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="9">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="9">
         <v>4</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="9">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="9">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="9">
         <v>6</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="9">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="9">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="9">
         <v>2</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="9">
         <v>5</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
         <v>2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="9">
         <v>4</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="9">
         <v>4</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="9">
         <v>4</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="9">
         <v>3</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="9">
         <v>2</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="9">
         <v>2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
         <v>6</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9">
         <v>2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
         <v>2</v>
       </c>
     </row>
